--- a/data/VEGFA165_NRP1_0.5-8nM_Lu2023.xlsx
+++ b/data/VEGFA165_NRP1_0.5-8nM_Lu2023.xlsx
@@ -1,11 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="26731"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{1E83B239-703D-4C40-A1BE-BA19386C31DD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\lione\Desktop\GitHub\meta-analysis-for-VEGF-signaling\data\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6D15D483-637D-430C-9692-69D62ACC1FF9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="22932" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -31,46 +36,43 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>0.5nM</t>
+    <t>RU 0.5nM</t>
   </si>
   <si>
-    <t>1nM</t>
+    <t>RU 1nM</t>
   </si>
   <si>
-    <t>2nM</t>
+    <t>RU 2nM</t>
   </si>
   <si>
-    <t>4nM</t>
+    <t>RU 4nM</t>
   </si>
   <si>
-    <t>8nM</t>
+    <t>RU 8nM</t>
   </si>
   <si>
-    <t>Time</t>
+    <t>Time 0.5nM</t>
   </si>
   <si>
-    <t>RU</t>
+    <t>Time 1nM</t>
   </si>
   <si>
-    <t>Max Value</t>
+    <t>Time 2nM</t>
   </si>
   <si>
-    <t>Half max value</t>
+    <t>Time 4nM</t>
   </si>
   <si>
-    <t>t1/2</t>
-  </si>
-  <si>
-    <t>ln2/t1/2</t>
+    <t>Time 8nM</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,11 +101,8 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -203,7 +202,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$A$3:$A$40</c:f>
+              <c:f>Sheet1!$A$2:$A$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -299,7 +298,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$B$3:$B$40</c:f>
+              <c:f>Sheet1!$B$2:$B$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -432,7 +431,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$C$3:$C$40</c:f>
+              <c:f>Sheet1!$C$2:$C$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -528,7 +527,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$D$3:$D$40</c:f>
+              <c:f>Sheet1!$D$2:$D$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -661,7 +660,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$E$3:$E$40</c:f>
+              <c:f>Sheet1!$E$2:$E$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -751,7 +750,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$F$3:$F$40</c:f>
+              <c:f>Sheet1!$F$2:$F$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -878,7 +877,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$G$3:$G$40</c:f>
+              <c:f>Sheet1!$G$2:$G$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -980,7 +979,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$H$3:$H$40</c:f>
+              <c:f>Sheet1!$H$2:$H$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1119,7 +1118,7 @@
           </c:marker>
           <c:xVal>
             <c:numRef>
-              <c:f>Sheet1!$I$3:$I$40</c:f>
+              <c:f>Sheet1!$I$2:$I$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -1242,7 +1241,7 @@
           </c:xVal>
           <c:yVal>
             <c:numRef>
-              <c:f>Sheet1!$J$3:$J$40</c:f>
+              <c:f>Sheet1!$J$2:$J$39</c:f>
               <c:numCache>
                 <c:formatCode>General</c:formatCode>
                 <c:ptCount val="38"/>
@@ -2478,1188 +2477,1047 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S46"/>
+  <dimension ref="A1:J39"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="U35" sqref="U35"/>
+    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="T48" sqref="M40:T48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:10">
-      <c r="A1" s="1" t="s">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>5</v>
+      </c>
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1" t="s">
+      <c r="C1" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
         <v>1</v>
       </c>
-      <c r="D1" s="1"/>
-      <c r="E1" s="1" t="s">
+      <c r="E1" t="s">
+        <v>7</v>
+      </c>
+      <c r="F1" t="s">
         <v>2</v>
       </c>
-      <c r="F1" s="1"/>
-      <c r="G1" s="1" t="s">
+      <c r="G1" t="s">
+        <v>8</v>
+      </c>
+      <c r="H1" t="s">
         <v>3</v>
       </c>
-      <c r="H1" s="1"/>
-      <c r="I1" s="1" t="s">
+      <c r="I1" t="s">
+        <v>9</v>
+      </c>
+      <c r="J1" t="s">
         <v>4</v>
       </c>
-      <c r="J1" s="1"/>
-    </row>
-    <row r="2" spans="1:10">
-      <c r="A2" t="s">
-        <v>5</v>
-      </c>
-      <c r="B2" t="s">
-        <v>6</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
-      </c>
-      <c r="D2" t="s">
-        <v>6</v>
-      </c>
-      <c r="E2" t="s">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s">
-        <v>5</v>
-      </c>
-      <c r="H2" t="s">
-        <v>6</v>
-      </c>
-      <c r="I2" t="s">
-        <v>5</v>
-      </c>
-      <c r="J2" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>-60.988</v>
+      </c>
+      <c r="B2">
+        <v>-0.30499999999999999</v>
+      </c>
+      <c r="C2">
+        <v>-61.628</v>
+      </c>
+      <c r="D2">
+        <v>-0.43099999999999999</v>
+      </c>
+      <c r="E2">
+        <v>-61.628</v>
+      </c>
+      <c r="F2">
+        <v>-0.17799999999999999</v>
+      </c>
+      <c r="G2">
+        <v>-60.988</v>
+      </c>
+      <c r="H2">
+        <v>0.26600000000000001</v>
+      </c>
+      <c r="I2">
+        <v>-62.267000000000003</v>
+      </c>
+      <c r="J2">
+        <v>-5.0999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>-60.988</v>
+        <v>-45.959000000000003</v>
       </c>
       <c r="B3">
-        <v>-0.30499999999999999</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="C3">
-        <v>-61.628</v>
+        <v>-51.715000000000003</v>
       </c>
       <c r="D3">
-        <v>-0.43099999999999999</v>
+        <v>-0.27300000000000002</v>
       </c>
       <c r="E3">
-        <v>-61.628</v>
+        <v>-48.517000000000003</v>
       </c>
       <c r="F3">
-        <v>-0.17799999999999999</v>
+        <v>-1.9E-2</v>
       </c>
       <c r="G3">
-        <v>-60.988</v>
+        <v>-48.517000000000003</v>
       </c>
       <c r="H3">
-        <v>0.26600000000000001</v>
+        <v>0.36199999999999999</v>
       </c>
       <c r="I3">
-        <v>-62.267000000000003</v>
+        <v>-51.715000000000003</v>
       </c>
       <c r="J3">
-        <v>-5.0999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:10">
+        <v>4.3999999999999997E-2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4">
+        <v>-26.773</v>
+      </c>
+      <c r="B4">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="C4">
+        <v>-42.122</v>
+      </c>
+      <c r="D4">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="E4">
+        <v>-38.284999999999997</v>
+      </c>
+      <c r="F4">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="G4">
+        <v>-36.366</v>
+      </c>
+      <c r="H4">
+        <v>0.17100000000000001</v>
+      </c>
+      <c r="I4">
         <v>-45.959000000000003</v>
       </c>
-      <c r="B4">
-        <v>-0.14599999999999999</v>
-      </c>
-      <c r="C4">
-        <v>-51.715000000000003</v>
-      </c>
-      <c r="D4">
-        <v>-0.27300000000000002</v>
-      </c>
-      <c r="E4">
-        <v>-48.517000000000003</v>
-      </c>
-      <c r="F4">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="G4">
-        <v>-48.517000000000003</v>
-      </c>
-      <c r="H4">
-        <v>0.36199999999999999</v>
-      </c>
-      <c r="I4">
-        <v>-51.715000000000003</v>
-      </c>
       <c r="J4">
-        <v>4.3999999999999997E-2</v>
-      </c>
-    </row>
-    <row r="5" spans="1:10">
+        <v>0.23499999999999999</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5">
-        <v>-26.773</v>
+        <v>-11.423999999999999</v>
       </c>
       <c r="B5">
-        <v>4.3999999999999997E-2</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="C5">
-        <v>-42.122</v>
+        <v>-30.61</v>
       </c>
       <c r="D5">
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="E5">
-        <v>-38.284999999999997</v>
+        <v>-26.773</v>
       </c>
       <c r="F5">
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="G5">
-        <v>-36.366</v>
+        <v>-22.936</v>
       </c>
       <c r="H5">
-        <v>0.17100000000000001</v>
+        <v>-8.2000000000000003E-2</v>
       </c>
       <c r="I5">
-        <v>-45.959000000000003</v>
+        <v>-37.645000000000003</v>
       </c>
       <c r="J5">
-        <v>0.23499999999999999</v>
-      </c>
-    </row>
-    <row r="6" spans="1:10">
+        <v>-0.14599999999999999</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6">
-        <v>-11.423999999999999</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="B6">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.20899999999999999</v>
       </c>
       <c r="C6">
-        <v>-30.61</v>
+        <v>-18.459</v>
       </c>
       <c r="D6">
-        <v>-8.2000000000000003E-2</v>
+        <v>-0.14599999999999999</v>
       </c>
       <c r="E6">
-        <v>-26.773</v>
+        <v>-12.702999999999999</v>
       </c>
       <c r="F6">
         <v>-8.2000000000000003E-2</v>
       </c>
       <c r="G6">
-        <v>-22.936</v>
+        <v>-10.785</v>
       </c>
       <c r="H6">
+        <v>4.3999999999999997E-2</v>
+      </c>
+      <c r="I6">
+        <v>-29.331</v>
+      </c>
+      <c r="J6">
         <v>-8.2000000000000003E-2</v>
       </c>
-      <c r="I6">
-        <v>-37.645000000000003</v>
-      </c>
-      <c r="J6">
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3.9239999999999999</v>
+      </c>
+      <c r="B7">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="C7">
+        <v>-7.5869999999999997</v>
+      </c>
+      <c r="D7">
+        <v>-8.2000000000000003E-2</v>
+      </c>
+      <c r="E7">
+        <v>8.6999999999999994E-2</v>
+      </c>
+      <c r="F7">
+        <v>-0.65400000000000003</v>
+      </c>
+      <c r="G7">
+        <v>-1.1919999999999999</v>
+      </c>
+      <c r="H7">
+        <v>-1.9E-2</v>
+      </c>
+      <c r="I7">
+        <v>-19.738</v>
+      </c>
+      <c r="J7">
         <v>-0.14599999999999999</v>
       </c>
     </row>
-    <row r="7" spans="1:10">
-      <c r="A7">
-        <v>1.3660000000000001</v>
-      </c>
-      <c r="B7">
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>12.878</v>
+      </c>
+      <c r="B8">
+        <v>1.06</v>
+      </c>
+      <c r="C8">
+        <v>-0.55200000000000005</v>
+      </c>
+      <c r="D8">
         <v>-0.20899999999999999</v>
       </c>
-      <c r="C7">
-        <v>-18.459</v>
-      </c>
-      <c r="D7">
-        <v>-0.14599999999999999</v>
-      </c>
-      <c r="E7">
-        <v>-12.702999999999999</v>
-      </c>
-      <c r="F7">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="G7">
-        <v>-10.785</v>
-      </c>
-      <c r="H7">
-        <v>4.3999999999999997E-2</v>
-      </c>
-      <c r="I7">
-        <v>-29.331</v>
-      </c>
-      <c r="J7">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:10">
-      <c r="A8">
+      <c r="E8">
+        <v>3.2850000000000001</v>
+      </c>
+      <c r="F8">
+        <v>1.123</v>
+      </c>
+      <c r="G8">
+        <v>0.72699999999999998</v>
+      </c>
+      <c r="H8">
+        <v>1.504</v>
+      </c>
+      <c r="I8">
+        <v>-8.2270000000000003</v>
+      </c>
+      <c r="J8">
+        <v>-1.9E-2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>23.75</v>
+      </c>
+      <c r="B9">
+        <v>1.377</v>
+      </c>
+      <c r="C9">
+        <v>2.645</v>
+      </c>
+      <c r="D9">
+        <v>1.44</v>
+      </c>
+      <c r="E9">
+        <v>10.32</v>
+      </c>
+      <c r="F9">
+        <v>2.5190000000000001</v>
+      </c>
+      <c r="G9">
         <v>3.9239999999999999</v>
       </c>
-      <c r="B8">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="C8">
-        <v>-7.5869999999999997</v>
-      </c>
-      <c r="D8">
-        <v>-8.2000000000000003E-2</v>
-      </c>
-      <c r="E8">
+      <c r="H9">
+        <v>3.1539999999999999</v>
+      </c>
+      <c r="I9">
         <v>8.6999999999999994E-2</v>
       </c>
-      <c r="F8">
-        <v>-0.65400000000000003</v>
-      </c>
-      <c r="G8">
-        <v>-1.1919999999999999</v>
-      </c>
-      <c r="H8">
-        <v>-1.9E-2</v>
-      </c>
-      <c r="I8">
-        <v>-19.738</v>
-      </c>
-      <c r="J8">
-        <v>-0.14599999999999999</v>
-      </c>
-    </row>
-    <row r="9" spans="1:10">
-      <c r="A9">
-        <v>12.878</v>
-      </c>
-      <c r="B9">
-        <v>1.06</v>
-      </c>
-      <c r="C9">
-        <v>-0.55200000000000005</v>
-      </c>
-      <c r="D9">
+      <c r="J9">
         <v>-0.20899999999999999</v>
       </c>
-      <c r="E9">
-        <v>3.2850000000000001</v>
-      </c>
-      <c r="F9">
-        <v>1.123</v>
-      </c>
-      <c r="G9">
-        <v>0.72699999999999998</v>
-      </c>
-      <c r="H9">
-        <v>1.504</v>
-      </c>
-      <c r="I9">
-        <v>-8.2270000000000003</v>
-      </c>
-      <c r="J9">
-        <v>-1.9E-2</v>
-      </c>
-    </row>
-    <row r="10" spans="1:10">
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10">
-        <v>23.75</v>
+        <v>37.18</v>
       </c>
       <c r="B10">
-        <v>1.377</v>
+        <v>1.758</v>
       </c>
       <c r="C10">
-        <v>2.645</v>
+        <v>7.7619999999999996</v>
       </c>
       <c r="D10">
-        <v>1.44</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="E10">
-        <v>10.32</v>
+        <v>22.471</v>
       </c>
       <c r="F10">
-        <v>2.5190000000000001</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="G10">
-        <v>3.9239999999999999</v>
+        <v>9.0410000000000004</v>
       </c>
       <c r="H10">
-        <v>3.1539999999999999</v>
+        <v>4.359</v>
       </c>
       <c r="I10">
         <v>8.6999999999999994E-2</v>
       </c>
       <c r="J10">
-        <v>-0.20899999999999999</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10">
+        <v>1.377</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11">
-        <v>37.18</v>
+        <v>55.726999999999997</v>
       </c>
       <c r="B11">
-        <v>1.758</v>
+        <v>1.885</v>
       </c>
       <c r="C11">
-        <v>7.7619999999999996</v>
+        <v>17.355</v>
       </c>
       <c r="D11">
-        <v>2.2650000000000001</v>
+        <v>2.9</v>
       </c>
       <c r="E11">
-        <v>22.471</v>
+        <v>39.098999999999997</v>
       </c>
       <c r="F11">
-        <v>3.5339999999999998</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="G11">
-        <v>9.0410000000000004</v>
+        <v>17.994</v>
       </c>
       <c r="H11">
-        <v>4.359</v>
+        <v>5.3739999999999997</v>
       </c>
       <c r="I11">
-        <v>8.6999999999999994E-2</v>
+        <v>1.3660000000000001</v>
       </c>
       <c r="J11">
-        <v>1.377</v>
-      </c>
-    </row>
-    <row r="12" spans="1:10">
+        <v>3.09</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12">
-        <v>55.726999999999997</v>
+        <v>71.075999999999993</v>
       </c>
       <c r="B12">
-        <v>1.885</v>
+        <v>1.948</v>
       </c>
       <c r="C12">
-        <v>17.355</v>
+        <v>34.622</v>
       </c>
       <c r="D12">
-        <v>2.9</v>
+        <v>3.4710000000000001</v>
       </c>
       <c r="E12">
-        <v>39.098999999999997</v>
+        <v>60.203000000000003</v>
       </c>
       <c r="F12">
-        <v>4.1050000000000004</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="G12">
-        <v>17.994</v>
+        <v>30.785</v>
       </c>
       <c r="H12">
-        <v>5.3739999999999997</v>
+        <v>6.1989999999999998</v>
       </c>
       <c r="I12">
-        <v>1.3660000000000001</v>
+        <v>4.5640000000000001</v>
       </c>
       <c r="J12">
-        <v>3.09</v>
-      </c>
-    </row>
-    <row r="13" spans="1:10">
+        <v>4.6760000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13">
-        <v>71.075999999999993</v>
+        <v>90.900999999999996</v>
       </c>
       <c r="B13">
         <v>1.948</v>
       </c>
       <c r="C13">
-        <v>34.622</v>
+        <v>53.808</v>
       </c>
       <c r="D13">
-        <v>3.4710000000000001</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="E13">
-        <v>60.203000000000003</v>
+        <v>84.506</v>
       </c>
       <c r="F13">
-        <v>4.6130000000000004</v>
+        <v>4.867</v>
       </c>
       <c r="G13">
-        <v>30.785</v>
+        <v>45.494</v>
       </c>
       <c r="H13">
-        <v>6.1989999999999998</v>
+        <v>6.8339999999999996</v>
       </c>
       <c r="I13">
-        <v>4.5640000000000001</v>
+        <v>10.32</v>
       </c>
       <c r="J13">
-        <v>4.6760000000000002</v>
-      </c>
-    </row>
-    <row r="14" spans="1:10">
+        <v>6.0720000000000001</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14">
-        <v>90.900999999999996</v>
+        <v>105.61</v>
       </c>
       <c r="B14">
         <v>1.948</v>
       </c>
       <c r="C14">
-        <v>53.808</v>
+        <v>70.436000000000007</v>
       </c>
       <c r="D14">
-        <v>3.8519999999999999</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="E14">
-        <v>84.506</v>
+        <v>103.05200000000001</v>
       </c>
       <c r="F14">
-        <v>4.867</v>
+        <v>4.9939999999999998</v>
       </c>
       <c r="G14">
-        <v>45.494</v>
+        <v>58.923999999999999</v>
       </c>
       <c r="H14">
-        <v>6.8339999999999996</v>
+        <v>7.468</v>
       </c>
       <c r="I14">
-        <v>10.32</v>
+        <v>19.273</v>
       </c>
       <c r="J14">
-        <v>6.0720000000000001</v>
-      </c>
-    </row>
-    <row r="15" spans="1:10">
+        <v>7.532</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15">
-        <v>105.61</v>
+        <v>117.762</v>
       </c>
       <c r="B15">
-        <v>1.948</v>
+        <v>1.885</v>
       </c>
       <c r="C15">
-        <v>70.436000000000007</v>
+        <v>88.983000000000004</v>
       </c>
       <c r="D15">
-        <v>4.0419999999999998</v>
+        <v>4.2320000000000002</v>
       </c>
       <c r="E15">
-        <v>103.05200000000001</v>
+        <v>118.401</v>
       </c>
       <c r="F15">
-        <v>4.9939999999999998</v>
+        <v>5.0570000000000004</v>
       </c>
       <c r="G15">
-        <v>58.923999999999999</v>
+        <v>74.912999999999997</v>
       </c>
       <c r="H15">
-        <v>7.468</v>
+        <v>7.9119999999999999</v>
       </c>
       <c r="I15">
-        <v>19.273</v>
+        <v>29.506</v>
       </c>
       <c r="J15">
-        <v>7.532</v>
-      </c>
-    </row>
-    <row r="16" spans="1:10">
+        <v>8.8010000000000002</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16">
-        <v>117.762</v>
+        <v>120.32</v>
       </c>
       <c r="B16">
-        <v>1.885</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="C16">
-        <v>88.983000000000004</v>
+        <v>106.89</v>
       </c>
       <c r="D16">
         <v>4.2320000000000002</v>
       </c>
       <c r="E16">
-        <v>118.401</v>
+        <v>123.517</v>
       </c>
       <c r="F16">
-        <v>5.0570000000000004</v>
+        <v>3.9780000000000002</v>
       </c>
       <c r="G16">
-        <v>74.912999999999997</v>
+        <v>90.262</v>
       </c>
       <c r="H16">
-        <v>7.9119999999999999</v>
+        <v>8.1029999999999998</v>
       </c>
       <c r="I16">
-        <v>29.506</v>
+        <v>40.378</v>
       </c>
       <c r="J16">
-        <v>8.8010000000000002</v>
-      </c>
-    </row>
-    <row r="17" spans="1:10">
+        <v>10.006</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17">
-        <v>120.32</v>
+        <v>122.878</v>
       </c>
       <c r="B17">
-        <v>2.2650000000000001</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="C17">
-        <v>106.89</v>
+        <v>119.68</v>
       </c>
       <c r="D17">
         <v>4.2320000000000002</v>
       </c>
       <c r="E17">
-        <v>123.517</v>
+        <v>134.38999999999999</v>
       </c>
       <c r="F17">
-        <v>3.9780000000000002</v>
+        <v>3.2170000000000001</v>
       </c>
       <c r="G17">
-        <v>90.262</v>
+        <v>104.331</v>
       </c>
       <c r="H17">
-        <v>8.1029999999999998</v>
+        <v>8.23</v>
       </c>
       <c r="I17">
-        <v>40.378</v>
+        <v>53.168999999999997</v>
       </c>
       <c r="J17">
-        <v>10.006</v>
-      </c>
-    </row>
-    <row r="18" spans="1:10">
+        <v>10.958</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>122.878</v>
+        <v>130.55199999999999</v>
       </c>
       <c r="B18">
-        <v>1.3129999999999999</v>
+        <v>1.06</v>
       </c>
       <c r="C18">
-        <v>119.68</v>
+        <v>121.599</v>
       </c>
       <c r="D18">
-        <v>4.2320000000000002</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="E18">
-        <v>134.38999999999999</v>
+        <v>152.297</v>
       </c>
       <c r="F18">
-        <v>3.2170000000000001</v>
+        <v>2.7730000000000001</v>
       </c>
       <c r="G18">
-        <v>104.331</v>
+        <v>117.762</v>
       </c>
       <c r="H18">
         <v>8.23</v>
       </c>
       <c r="I18">
-        <v>53.168999999999997</v>
+        <v>67.878</v>
       </c>
       <c r="J18">
-        <v>10.958</v>
-      </c>
-    </row>
-    <row r="19" spans="1:10">
+        <v>11.72</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>130.55199999999999</v>
+        <v>142.06399999999999</v>
       </c>
       <c r="B19">
-        <v>1.06</v>
+        <v>0.93300000000000005</v>
       </c>
       <c r="C19">
-        <v>121.599</v>
+        <v>131.83099999999999</v>
       </c>
       <c r="D19">
-        <v>2.7730000000000001</v>
+        <v>2.0110000000000001</v>
       </c>
       <c r="E19">
-        <v>152.297</v>
+        <v>174.68</v>
       </c>
       <c r="F19">
-        <v>2.7730000000000001</v>
+        <v>2.456</v>
       </c>
       <c r="G19">
-        <v>117.762</v>
+        <v>122.238</v>
       </c>
       <c r="H19">
-        <v>8.23</v>
+        <v>6.9610000000000003</v>
       </c>
       <c r="I19">
-        <v>67.878</v>
+        <v>81.947999999999993</v>
       </c>
       <c r="J19">
-        <v>11.72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:10">
+        <v>12.417999999999999</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>142.06399999999999</v>
+        <v>163.16900000000001</v>
       </c>
       <c r="B20">
-        <v>0.93300000000000005</v>
+        <v>0.80600000000000005</v>
       </c>
       <c r="C20">
-        <v>131.83099999999999</v>
+        <v>145.90100000000001</v>
       </c>
       <c r="D20">
-        <v>2.0110000000000001</v>
+        <v>1.631</v>
       </c>
       <c r="E20">
-        <v>174.68</v>
+        <v>202.82</v>
       </c>
       <c r="F20">
-        <v>2.456</v>
+        <v>2.2650000000000001</v>
       </c>
       <c r="G20">
-        <v>122.238</v>
+        <v>127.355</v>
       </c>
       <c r="H20">
-        <v>6.9610000000000003</v>
+        <v>5.8819999999999997</v>
       </c>
       <c r="I20">
-        <v>81.947999999999993</v>
+        <v>99.215000000000003</v>
       </c>
       <c r="J20">
-        <v>12.417999999999999</v>
-      </c>
-    </row>
-    <row r="21" spans="1:10">
+        <v>12.734999999999999</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21">
+        <v>182.994</v>
+      </c>
+      <c r="B21">
+        <v>0.67900000000000005</v>
+      </c>
+      <c r="C21">
         <v>163.16900000000001</v>
       </c>
-      <c r="B21">
-        <v>0.80600000000000005</v>
-      </c>
-      <c r="C21">
-        <v>145.90100000000001</v>
-      </c>
       <c r="D21">
-        <v>1.631</v>
+        <v>1.3129999999999999</v>
       </c>
       <c r="E21">
-        <v>202.82</v>
+        <v>226.483</v>
       </c>
       <c r="F21">
-        <v>2.2650000000000001</v>
+        <v>2.202</v>
       </c>
       <c r="G21">
-        <v>127.355</v>
+        <v>140.785</v>
       </c>
       <c r="H21">
-        <v>5.8819999999999997</v>
+        <v>5.2469999999999999</v>
       </c>
       <c r="I21">
-        <v>99.215000000000003</v>
+        <v>119.68</v>
       </c>
       <c r="J21">
         <v>12.734999999999999</v>
       </c>
     </row>
-    <row r="22" spans="1:10">
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>182.994</v>
+        <v>205.37799999999999</v>
       </c>
       <c r="B22">
         <v>0.67900000000000005</v>
       </c>
       <c r="C22">
-        <v>163.16900000000001</v>
+        <v>183.63399999999999</v>
       </c>
       <c r="D22">
-        <v>1.3129999999999999</v>
+        <v>1.25</v>
       </c>
       <c r="E22">
-        <v>226.483</v>
+        <v>252.06399999999999</v>
       </c>
       <c r="F22">
         <v>2.202</v>
       </c>
       <c r="G22">
-        <v>140.785</v>
+        <v>158.05199999999999</v>
       </c>
       <c r="H22">
-        <v>5.2469999999999999</v>
+        <v>4.6130000000000004</v>
       </c>
       <c r="I22">
-        <v>119.68</v>
+        <v>121.599</v>
       </c>
       <c r="J22">
-        <v>12.734999999999999</v>
-      </c>
-    </row>
-    <row r="23" spans="1:10">
+        <v>11.275</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23">
+        <v>229.041</v>
+      </c>
+      <c r="B23">
+        <v>0.55200000000000005</v>
+      </c>
+      <c r="C23">
+        <v>206.65700000000001</v>
+      </c>
+      <c r="D23">
+        <v>1.123</v>
+      </c>
+      <c r="E23">
+        <v>280.20299999999997</v>
+      </c>
+      <c r="F23">
+        <v>2.1379999999999999</v>
+      </c>
+      <c r="G23">
+        <v>180.43600000000001</v>
+      </c>
+      <c r="H23">
+        <v>4.2960000000000003</v>
+      </c>
+      <c r="I23">
+        <v>129.273</v>
+      </c>
+      <c r="J23">
+        <v>10.07</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>253.983</v>
+      </c>
+      <c r="B24">
+        <v>0.61499999999999999</v>
+      </c>
+      <c r="C24">
+        <v>225.203</v>
+      </c>
+      <c r="D24">
+        <v>1.1870000000000001</v>
+      </c>
+      <c r="E24">
+        <v>307.70299999999997</v>
+      </c>
+      <c r="F24">
+        <v>2.0750000000000002</v>
+      </c>
+      <c r="G24">
         <v>205.37799999999999</v>
       </c>
-      <c r="B23">
-        <v>0.67900000000000005</v>
-      </c>
-      <c r="C23">
-        <v>183.63399999999999</v>
-      </c>
-      <c r="D23">
-        <v>1.25</v>
-      </c>
-      <c r="E23">
-        <v>252.06399999999999</v>
-      </c>
-      <c r="F23">
-        <v>2.202</v>
-      </c>
-      <c r="G23">
-        <v>158.05199999999999</v>
-      </c>
-      <c r="H23">
-        <v>4.6130000000000004</v>
-      </c>
-      <c r="I23">
-        <v>121.599</v>
-      </c>
-      <c r="J23">
-        <v>11.275</v>
-      </c>
-    </row>
-    <row r="24" spans="1:10">
-      <c r="A24">
-        <v>229.041</v>
-      </c>
-      <c r="B24">
-        <v>0.55200000000000005</v>
-      </c>
-      <c r="C24">
-        <v>206.65700000000001</v>
-      </c>
-      <c r="D24">
-        <v>1.123</v>
-      </c>
-      <c r="E24">
-        <v>280.20299999999997</v>
-      </c>
-      <c r="F24">
-        <v>2.1379999999999999</v>
-      </c>
-      <c r="G24">
-        <v>180.43600000000001</v>
-      </c>
       <c r="H24">
-        <v>4.2960000000000003</v>
+        <v>4.1050000000000004</v>
       </c>
       <c r="I24">
-        <v>129.273</v>
+        <v>143.34299999999999</v>
       </c>
       <c r="J24">
-        <v>10.07</v>
-      </c>
-    </row>
-    <row r="25" spans="1:10">
+        <v>9.3719999999999999</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25">
-        <v>253.983</v>
+        <v>283.40100000000001</v>
       </c>
       <c r="B25">
         <v>0.61499999999999999</v>
       </c>
       <c r="C25">
-        <v>225.203</v>
+        <v>252.703</v>
       </c>
       <c r="D25">
-        <v>1.1870000000000001</v>
+        <v>1.123</v>
       </c>
       <c r="E25">
-        <v>307.70299999999997</v>
+        <v>333.28500000000003</v>
       </c>
       <c r="F25">
         <v>2.0750000000000002</v>
       </c>
       <c r="G25">
-        <v>205.37799999999999</v>
+        <v>226.483</v>
       </c>
       <c r="H25">
-        <v>4.1050000000000004</v>
+        <v>4.0419999999999998</v>
       </c>
       <c r="I25">
-        <v>143.34299999999999</v>
+        <v>160.61000000000001</v>
       </c>
       <c r="J25">
-        <v>9.3719999999999999</v>
-      </c>
-    </row>
-    <row r="26" spans="1:10">
+        <v>8.61</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26">
-        <v>283.40100000000001</v>
+        <v>311.541</v>
       </c>
       <c r="B26">
-        <v>0.61499999999999999</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="C26">
-        <v>252.703</v>
+        <v>281.483</v>
       </c>
       <c r="D26">
-        <v>1.123</v>
+        <v>1.06</v>
       </c>
       <c r="E26">
-        <v>333.28500000000003</v>
+        <v>359.50599999999997</v>
       </c>
       <c r="F26">
-        <v>2.0750000000000002</v>
+        <v>1.948</v>
       </c>
       <c r="G26">
-        <v>226.483</v>
+        <v>253.983</v>
       </c>
       <c r="H26">
-        <v>4.0419999999999998</v>
+        <v>3.8519999999999999</v>
       </c>
       <c r="I26">
-        <v>160.61000000000001</v>
+        <v>178.517</v>
       </c>
       <c r="J26">
-        <v>8.61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:10">
+        <v>8.2929999999999993</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27">
-        <v>311.541</v>
+        <v>340.959</v>
       </c>
       <c r="B27">
-        <v>0.55200000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C27">
-        <v>281.483</v>
+        <v>308.983</v>
       </c>
       <c r="D27">
-        <v>1.06</v>
+        <v>1.1870000000000001</v>
       </c>
       <c r="E27">
-        <v>359.50599999999997</v>
+        <v>385.72699999999998</v>
       </c>
       <c r="F27">
         <v>1.948</v>
       </c>
       <c r="G27">
-        <v>253.983</v>
+        <v>278.28500000000003</v>
       </c>
       <c r="H27">
-        <v>3.8519999999999999</v>
+        <v>3.7879999999999998</v>
       </c>
       <c r="I27">
-        <v>178.517</v>
+        <v>195.785</v>
       </c>
       <c r="J27">
-        <v>8.2929999999999993</v>
-      </c>
-    </row>
-    <row r="28" spans="1:10">
+        <v>7.976</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28">
-        <v>340.959</v>
+        <v>369.738</v>
       </c>
       <c r="B28">
-        <v>0.48899999999999999</v>
+        <v>0.55200000000000005</v>
       </c>
       <c r="C28">
-        <v>308.983</v>
+        <v>342.238</v>
       </c>
       <c r="D28">
         <v>1.1870000000000001</v>
       </c>
       <c r="E28">
-        <v>385.72699999999998</v>
+        <v>419.62200000000001</v>
       </c>
       <c r="F28">
-        <v>1.948</v>
+        <v>1.885</v>
       </c>
       <c r="G28">
-        <v>278.28500000000003</v>
+        <v>304.50599999999997</v>
       </c>
       <c r="H28">
-        <v>3.7879999999999998</v>
+        <v>3.7250000000000001</v>
       </c>
       <c r="I28">
-        <v>195.785</v>
+        <v>216.25</v>
       </c>
       <c r="J28">
-        <v>7.976</v>
-      </c>
-    </row>
-    <row r="29" spans="1:10">
+        <v>7.7859999999999996</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29">
-        <v>369.738</v>
+        <v>392.12200000000001</v>
       </c>
       <c r="B29">
-        <v>0.55200000000000005</v>
+        <v>0.48899999999999999</v>
       </c>
       <c r="C29">
-        <v>342.238</v>
+        <v>378.05200000000002</v>
       </c>
       <c r="D29">
-        <v>1.1870000000000001</v>
-      </c>
-      <c r="E29">
+        <v>1.06</v>
+      </c>
+      <c r="G29">
+        <v>335.20299999999997</v>
+      </c>
+      <c r="H29">
+        <v>3.661</v>
+      </c>
+      <c r="I29">
+        <v>234.797</v>
+      </c>
+      <c r="J29">
+        <v>7.5949999999999998</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30">
         <v>419.62200000000001</v>
       </c>
-      <c r="F29">
-        <v>1.885</v>
-      </c>
-      <c r="G29">
-        <v>304.50599999999997</v>
-      </c>
-      <c r="H29">
-        <v>3.7250000000000001</v>
-      </c>
-      <c r="I29">
-        <v>216.25</v>
-      </c>
-      <c r="J29">
-        <v>7.7859999999999996</v>
-      </c>
-    </row>
-    <row r="30" spans="1:10">
-      <c r="A30">
-        <v>392.12200000000001</v>
-      </c>
       <c r="B30">
-        <v>0.48899999999999999</v>
+        <v>0.42499999999999999</v>
       </c>
       <c r="C30">
-        <v>378.05200000000002</v>
+        <v>420.262</v>
       </c>
       <c r="D30">
-        <v>1.06</v>
+        <v>1.123</v>
       </c>
       <c r="G30">
-        <v>335.20299999999997</v>
+        <v>365.262</v>
       </c>
       <c r="H30">
-        <v>3.661</v>
+        <v>3.5339999999999998</v>
       </c>
       <c r="I30">
-        <v>234.797</v>
+        <v>251.42400000000001</v>
       </c>
       <c r="J30">
-        <v>7.5949999999999998</v>
-      </c>
-    </row>
-    <row r="31" spans="1:10">
-      <c r="A31">
+        <v>7.4050000000000002</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G31">
+        <v>391.483</v>
+      </c>
+      <c r="H31">
+        <v>3.407</v>
+      </c>
+      <c r="I31">
+        <v>268.69200000000001</v>
+      </c>
+      <c r="J31">
+        <v>7.3410000000000002</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="G32">
         <v>419.62200000000001</v>
-      </c>
-      <c r="B31">
-        <v>0.42499999999999999</v>
-      </c>
-      <c r="C31">
-        <v>420.262</v>
-      </c>
-      <c r="D31">
-        <v>1.123</v>
-      </c>
-      <c r="G31">
-        <v>365.262</v>
-      </c>
-      <c r="H31">
-        <v>3.5339999999999998</v>
-      </c>
-      <c r="I31">
-        <v>251.42400000000001</v>
-      </c>
-      <c r="J31">
-        <v>7.4050000000000002</v>
-      </c>
-    </row>
-    <row r="32" spans="1:10">
-      <c r="G32">
-        <v>391.483</v>
       </c>
       <c r="H32">
         <v>3.407</v>
       </c>
       <c r="I32">
-        <v>268.69200000000001</v>
+        <v>285.32</v>
       </c>
       <c r="J32">
-        <v>7.3410000000000002</v>
-      </c>
-    </row>
-    <row r="33" spans="7:19">
-      <c r="G33">
-        <v>419.62200000000001</v>
-      </c>
-      <c r="H33">
-        <v>3.407</v>
-      </c>
+        <v>7.1509999999999998</v>
+      </c>
+    </row>
+    <row r="33" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I33">
-        <v>285.32</v>
+        <v>302.58699999999999</v>
       </c>
       <c r="J33">
-        <v>7.1509999999999998</v>
-      </c>
-    </row>
-    <row r="34" spans="7:19">
+        <v>7.0880000000000001</v>
+      </c>
+    </row>
+    <row r="34" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I34">
-        <v>302.58699999999999</v>
+        <v>320.49400000000003</v>
       </c>
       <c r="J34">
         <v>7.0880000000000001</v>
       </c>
     </row>
-    <row r="35" spans="7:19">
+    <row r="35" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I35">
-        <v>320.49400000000003</v>
+        <v>342.87799999999999</v>
       </c>
       <c r="J35">
-        <v>7.0880000000000001</v>
-      </c>
-    </row>
-    <row r="36" spans="7:19">
+        <v>6.9610000000000003</v>
+      </c>
+    </row>
+    <row r="36" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I36">
-        <v>342.87799999999999</v>
+        <v>359.50599999999997</v>
       </c>
       <c r="J36">
-        <v>6.9610000000000003</v>
-      </c>
-    </row>
-    <row r="37" spans="7:19">
+        <v>6.77</v>
+      </c>
+    </row>
+    <row r="37" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I37">
-        <v>359.50599999999997</v>
+        <v>379.33100000000002</v>
       </c>
       <c r="J37">
-        <v>6.77</v>
-      </c>
-    </row>
-    <row r="38" spans="7:19">
+        <v>6.8339999999999996</v>
+      </c>
+    </row>
+    <row r="38" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I38">
-        <v>379.33100000000002</v>
+        <v>399.79700000000003</v>
       </c>
       <c r="J38">
-        <v>6.8339999999999996</v>
-      </c>
-    </row>
-    <row r="39" spans="7:19">
+        <v>6.7069999999999999</v>
+      </c>
+    </row>
+    <row r="39" spans="9:10" x14ac:dyDescent="0.25">
       <c r="I39">
-        <v>399.79700000000003</v>
+        <v>420.262</v>
       </c>
       <c r="J39">
         <v>6.7069999999999999</v>
       </c>
     </row>
-    <row r="40" spans="7:19">
-      <c r="I40">
-        <v>420.262</v>
-      </c>
-      <c r="J40">
-        <v>6.7069999999999999</v>
-      </c>
-    </row>
-    <row r="42" spans="7:19">
-      <c r="O42" t="s">
-        <v>0</v>
-      </c>
-      <c r="P42" t="s">
-        <v>1</v>
-      </c>
-      <c r="Q42" t="s">
-        <v>2</v>
-      </c>
-      <c r="R42" t="s">
-        <v>3</v>
-      </c>
-      <c r="S42" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="43" spans="7:19">
-      <c r="N43" t="s">
-        <v>7</v>
-      </c>
-      <c r="O43">
-        <f>MAX(B3:B31)</f>
-        <v>2.2650000000000001</v>
-      </c>
-      <c r="P43">
-        <f>MAX(C3:C31)</f>
-        <v>420.262</v>
-      </c>
-      <c r="Q43">
-        <f>MAX(D3:D31)</f>
-        <v>4.2320000000000002</v>
-      </c>
-      <c r="R43">
-        <f>MAX(E3:E31)</f>
-        <v>419.62200000000001</v>
-      </c>
-      <c r="S43">
-        <f>MAX(F3:F31)</f>
-        <v>5.0570000000000004</v>
-      </c>
-    </row>
-    <row r="44" spans="7:19">
-      <c r="N44" t="s">
-        <v>8</v>
-      </c>
-      <c r="O44">
-        <f>O43/2</f>
-        <v>1.1325000000000001</v>
-      </c>
-      <c r="P44">
-        <f t="shared" ref="P44:S44" si="0">P43/2</f>
-        <v>210.131</v>
-      </c>
-      <c r="Q44">
-        <f t="shared" si="0"/>
-        <v>2.1160000000000001</v>
-      </c>
-      <c r="R44">
-        <f t="shared" si="0"/>
-        <v>209.81100000000001</v>
-      </c>
-      <c r="S44">
-        <f t="shared" si="0"/>
-        <v>2.5285000000000002</v>
-      </c>
-    </row>
-    <row r="45" spans="7:19">
-      <c r="N45" t="s">
-        <v>9</v>
-      </c>
-      <c r="O45">
-        <v>20</v>
-      </c>
-      <c r="P45">
-        <v>15</v>
-      </c>
-      <c r="Q45">
-        <v>13</v>
-      </c>
-      <c r="R45">
-        <v>11</v>
-      </c>
-      <c r="S45">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="46" spans="7:19">
-      <c r="N46" t="s">
-        <v>10</v>
-      </c>
-      <c r="O46">
-        <f>LN(2)/O45</f>
-        <v>3.4657359027997263E-2</v>
-      </c>
-      <c r="P46">
-        <f t="shared" ref="P46:S46" si="1">LN(2)/P45</f>
-        <v>4.6209812037329684E-2</v>
-      </c>
-      <c r="Q46">
-        <f t="shared" si="1"/>
-        <v>5.3319013889226559E-2</v>
-      </c>
-      <c r="R46">
-        <f t="shared" si="1"/>
-        <v>6.3013380050904122E-2</v>
-      </c>
-      <c r="S46">
-        <f t="shared" si="1"/>
-        <v>6.3013380050904122E-2</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="5">
-    <mergeCell ref="A1:B1"/>
-    <mergeCell ref="C1:D1"/>
-    <mergeCell ref="E1:F1"/>
-    <mergeCell ref="G1:H1"/>
-    <mergeCell ref="I1:J1"/>
-  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <drawing r:id="rId1"/>
 </worksheet>
